--- a/2/Vadim/3 kurse/EPU/2 лаба/Часть 1/2 лаба.xlsx
+++ b/2/Vadim/3 kurse/EPU/2 лаба/Часть 1/2 лаба.xlsx
@@ -237,6 +237,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -244,8 +246,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19:X22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,9 +678,9 @@
       <c r="P2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
       <c r="V2" s="2"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -731,9 +731,9 @@
       <c r="P3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
       <c r="V3" s="2"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -784,9 +784,9 @@
       <c r="P4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
       <c r="V4" s="2"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -837,9 +837,9 @@
       <c r="P5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
       <c r="V5" s="2"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -890,9 +890,9 @@
       <c r="P6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
       <c r="V6" s="2"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -943,9 +943,9 @@
       <c r="P7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
       <c r="V7" s="2"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -996,9 +996,9 @@
       <c r="P8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
       <c r="V8" s="2"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -1049,9 +1049,9 @@
       <c r="P9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
       <c r="V9" s="2"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -1102,9 +1102,9 @@
       <c r="P10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
       <c r="V10" s="2"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -1155,9 +1155,9 @@
       <c r="P11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
       <c r="V11" s="2"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -1208,9 +1208,9 @@
       <c r="P12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
       <c r="V12" s="2"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -1261,9 +1261,9 @@
       <c r="P13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
       <c r="V13" s="2"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -1400,32 +1400,32 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V18" s="7" t="s">
+      <c r="V18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="W18" s="7"/>
-      <c r="X18" s="10" t="s">
+      <c r="W18" s="9"/>
+      <c r="X18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="Y18" s="10" t="s">
+      <c r="Y18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Z18" s="10" t="s">
+      <c r="Z18" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AA18" s="10" t="s">
+      <c r="AA18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AB18" s="10" t="s">
+      <c r="AB18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AC18" s="10" t="s">
+      <c r="AC18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AD18" s="10" t="s">
+      <c r="AD18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AE18" s="10" t="s">
+      <c r="AE18" s="7" t="s">
         <v>51</v>
       </c>
       <c r="AF18" s="1"/>
@@ -1456,10 +1456,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V19" s="8" t="s">
+      <c r="V19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="W19" s="9"/>
+      <c r="W19" s="11"/>
       <c r="X19">
         <f>H2</f>
         <v>1</v>
@@ -1520,10 +1520,10 @@
         <v>0</v>
       </c>
       <c r="K20" s="1"/>
-      <c r="V20" s="8" t="s">
+      <c r="V20" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="W20" s="9"/>
+      <c r="W20" s="11"/>
       <c r="X20">
         <f>H10</f>
         <v>1</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="K21" s="1"/>
-      <c r="V21" s="8" t="s">
+      <c r="V21" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="W21" s="9"/>
+      <c r="W21" s="11"/>
       <c r="X21">
         <f>H18</f>
         <v>1</v>
@@ -1648,10 +1648,10 @@
         <v>0</v>
       </c>
       <c r="K22" s="1"/>
-      <c r="V22" s="8" t="s">
+      <c r="V22" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="W22" s="9"/>
+      <c r="W22" s="11"/>
       <c r="X22">
         <f>H26</f>
         <v>0</v>
